--- a/biology/Biologie cellulaire et moléculaire/Lamine_(biologie)/Lamine_(biologie).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Lamine_(biologie)/Lamine_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lamine est une protéine fibreuse qui forme la lamina nucléaire.
 Les lamines A(70kDa), B(67kDa) et C(60kDa) forment cette lamina dans toutes les cellules eucaryotes (sauf les globules rouges) : ce sont des filaments intermédiaires nucléoplasmiques de type V qui participent à la structure du noyau et aux liaisons chromatine/membrane nucléaire. Elles interviennent également dans les processus de mitose (phosphorylation des lamines sur les résidus sérine par le MPF ce qui les rend solubles. L’enveloppe nucléaire n’est plus soutenue et se rompt en vésicules), de différenciation cellulaire (lamine B remplacée par des lamines A) et de mort cellulaire (dégradation des lamines par les caspases 6 engendrant une cascade de réactions entrainant l'apoptose).
